--- a/endangeredanimalsbycountry.xlsx
+++ b/endangeredanimalsbycountry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnqua\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A519DC34-BC32-4374-84F7-A3827A7504DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54BA845-17A0-437A-94A7-54346D7BC9CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{D9385807-26A9-4F64-A672-009933E66496}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9385807-26A9-4F64-A672-009933E66496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>latitude</t>
   </si>
@@ -766,6 +766,9 @@
   </si>
   <si>
     <t>CriticallyEndangered</t>
+  </si>
+  <si>
+    <t>T_SP</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE72539-3223-40EE-9BCE-07313CF73203}">
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,7 +1181,7 @@
     <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1191,8 +1194,11 @@
       <c r="D1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1205,8 +1211,11 @@
       <c r="D2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1219,8 +1228,11 @@
       <c r="D3">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
@@ -1233,8 +1245,11 @@
       <c r="D4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1247,8 +1262,11 @@
       <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1261,8 +1279,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1275,8 +1296,11 @@
       <c r="D7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1289,8 +1313,11 @@
       <c r="D8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1303,8 +1330,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1317,8 +1347,11 @@
       <c r="D10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1331,8 +1364,11 @@
       <c r="D11">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1345,8 +1381,11 @@
       <c r="D12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1359,8 +1398,11 @@
       <c r="D13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1373,8 +1415,11 @@
       <c r="D14">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1387,8 +1432,11 @@
       <c r="D15">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1401,8 +1449,11 @@
       <c r="D16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1415,8 +1466,11 @@
       <c r="D17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1483,11 @@
       <c r="D18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1443,8 +1500,11 @@
       <c r="D19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1457,8 +1517,11 @@
       <c r="D20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1471,8 +1534,11 @@
       <c r="D21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1485,8 +1551,11 @@
       <c r="D22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -1499,8 +1568,11 @@
       <c r="D23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1513,8 +1585,11 @@
       <c r="D24">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1527,8 +1602,11 @@
       <c r="D25">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -1541,8 +1619,11 @@
       <c r="D26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1555,8 +1636,11 @@
       <c r="D27">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -1569,8 +1653,11 @@
       <c r="D28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -1583,8 +1670,11 @@
       <c r="D29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -1597,8 +1687,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1611,8 +1704,11 @@
       <c r="D31">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>104</v>
       </c>
@@ -1625,8 +1721,11 @@
       <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -1639,8 +1738,11 @@
       <c r="D33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -1653,8 +1755,11 @@
       <c r="D34">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -1667,8 +1772,11 @@
       <c r="D35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
@@ -1681,8 +1789,11 @@
       <c r="D36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>115</v>
       </c>
@@ -1695,8 +1806,11 @@
       <c r="D37">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -1709,8 +1823,11 @@
       <c r="D38">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -1723,8 +1840,11 @@
       <c r="D39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
@@ -1737,8 +1857,11 @@
       <c r="D40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>122</v>
       </c>
@@ -1751,8 +1874,11 @@
       <c r="D41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -1765,8 +1891,11 @@
       <c r="D42">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>210</v>
       </c>
@@ -1779,8 +1908,11 @@
       <c r="D43">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E43">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -1793,8 +1925,11 @@
       <c r="D44">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -1807,8 +1942,11 @@
       <c r="D45">
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
@@ -1821,8 +1959,11 @@
       <c r="D46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>38</v>
       </c>
@@ -1835,8 +1976,11 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -1849,8 +1993,11 @@
       <c r="D48">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <v>5971</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>117</v>
       </c>
@@ -1863,8 +2010,11 @@
       <c r="D49">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
@@ -1877,8 +2027,11 @@
       <c r="D50">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
@@ -1891,8 +2044,11 @@
       <c r="D51">
         <v>29</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>44</v>
       </c>
@@ -1905,8 +2061,11 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
@@ -1919,8 +2078,11 @@
       <c r="D53">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>43</v>
       </c>
@@ -1933,8 +2095,11 @@
       <c r="D54">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
@@ -1947,8 +2112,11 @@
       <c r="D55">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>50</v>
       </c>
@@ -1961,8 +2129,11 @@
       <c r="D56">
         <v>34</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
@@ -1975,8 +2146,11 @@
       <c r="D57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
@@ -1989,8 +2163,11 @@
       <c r="D58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -2003,8 +2180,11 @@
       <c r="D59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
@@ -2017,8 +2197,11 @@
       <c r="D60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>58</v>
       </c>
@@ -2031,8 +2214,11 @@
       <c r="D61">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>59</v>
       </c>
@@ -2045,8 +2231,11 @@
       <c r="D62">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -2059,8 +2248,11 @@
       <c r="D63">
         <v>88</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -2073,8 +2265,11 @@
       <c r="D64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>206</v>
       </c>
@@ -2087,8 +2282,11 @@
       <c r="D65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>86</v>
       </c>
@@ -2101,8 +2299,11 @@
       <c r="D66">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -2115,8 +2316,11 @@
       <c r="D67">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>62</v>
       </c>
@@ -2129,8 +2333,11 @@
       <c r="D68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -2143,8 +2350,11 @@
       <c r="D69">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
@@ -2157,8 +2367,11 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
@@ -2171,8 +2384,11 @@
       <c r="D71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>69</v>
       </c>
@@ -2185,8 +2401,11 @@
       <c r="D72">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
@@ -2199,8 +2418,11 @@
       <c r="D73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -2213,8 +2435,11 @@
       <c r="D74">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
@@ -2227,8 +2452,11 @@
       <c r="D75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>172</v>
       </c>
@@ -2241,8 +2469,11 @@
       <c r="D76">
         <v>35</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>211</v>
       </c>
@@ -2255,8 +2486,11 @@
       <c r="D77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>74</v>
       </c>
@@ -2269,8 +2503,11 @@
       <c r="D78">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>83</v>
       </c>
@@ -2283,8 +2520,11 @@
       <c r="D79">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>77</v>
       </c>
@@ -2297,8 +2537,11 @@
       <c r="D80">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>55</v>
       </c>
@@ -2311,8 +2554,11 @@
       <c r="D81">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
@@ -2325,8 +2571,11 @@
       <c r="D82">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -2339,8 +2588,11 @@
       <c r="D83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>87</v>
       </c>
@@ -2353,8 +2605,11 @@
       <c r="D84">
         <v>59</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>82</v>
       </c>
@@ -2367,8 +2622,11 @@
       <c r="D85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>76</v>
       </c>
@@ -2381,8 +2639,11 @@
       <c r="D86">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
@@ -2395,8 +2656,11 @@
       <c r="D87">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
@@ -2409,8 +2673,11 @@
       <c r="D88">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>89</v>
       </c>
@@ -2423,8 +2690,11 @@
       <c r="D89">
         <v>38</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>79</v>
       </c>
@@ -2437,8 +2707,11 @@
       <c r="D90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>84</v>
       </c>
@@ -2451,8 +2724,11 @@
       <c r="D91">
         <v>15</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -2465,8 +2741,11 @@
       <c r="D92">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -2479,8 +2758,11 @@
       <c r="D93">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>97</v>
       </c>
@@ -2493,8 +2775,11 @@
       <c r="D94">
         <v>39</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -2507,8 +2792,11 @@
       <c r="D95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -2521,8 +2809,11 @@
       <c r="D96">
         <v>44</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>93</v>
       </c>
@@ -2535,8 +2826,11 @@
       <c r="D97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E97">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
@@ -2549,8 +2843,11 @@
       <c r="D98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E98">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>107</v>
       </c>
@@ -2563,8 +2860,11 @@
       <c r="D99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>103</v>
       </c>
@@ -2577,8 +2877,11 @@
       <c r="D100">
         <v>75</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E100">
+        <v>5126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
@@ -2591,8 +2894,11 @@
       <c r="D101">
         <v>77</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E101">
+        <v>6509</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>106</v>
       </c>
@@ -2605,8 +2911,11 @@
       <c r="D102">
         <v>16</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E102">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>105</v>
       </c>
@@ -2619,8 +2928,11 @@
       <c r="D103">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E103">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>100</v>
       </c>
@@ -2633,8 +2945,11 @@
       <c r="D104">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E104">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>102</v>
       </c>
@@ -2647,8 +2962,11 @@
       <c r="D105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E105">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>101</v>
       </c>
@@ -2661,8 +2979,11 @@
       <c r="D106">
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E106">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>108</v>
       </c>
@@ -2675,8 +2996,11 @@
       <c r="D107">
         <v>23</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E107">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>110</v>
       </c>
@@ -2689,8 +3013,11 @@
       <c r="D108">
         <v>19</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E108">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>112</v>
       </c>
@@ -2703,8 +3030,11 @@
       <c r="D109">
         <v>29</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E109">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -2717,8 +3047,11 @@
       <c r="D110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E110">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>111</v>
       </c>
@@ -2731,8 +3064,11 @@
       <c r="D111">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E111">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>123</v>
       </c>
@@ -2745,8 +3081,11 @@
       <c r="D112">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E112">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>113</v>
       </c>
@@ -2759,8 +3098,11 @@
       <c r="D113">
         <v>39</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E113">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>116</v>
       </c>
@@ -2773,8 +3115,11 @@
       <c r="D114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E114">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>121</v>
       </c>
@@ -2787,8 +3132,11 @@
       <c r="D115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E115">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
@@ -2801,8 +3149,11 @@
       <c r="D116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E116">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>124</v>
       </c>
@@ -2815,8 +3166,11 @@
       <c r="D117">
         <v>28</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E117">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>133</v>
       </c>
@@ -2829,8 +3183,11 @@
       <c r="D118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E118">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>125</v>
       </c>
@@ -2843,8 +3200,11 @@
       <c r="D119">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E119">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>130</v>
       </c>
@@ -2857,8 +3217,11 @@
       <c r="D120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E120">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>129</v>
       </c>
@@ -2871,8 +3234,11 @@
       <c r="D121">
         <v>17</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E121">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>134</v>
       </c>
@@ -2885,8 +3251,11 @@
       <c r="D122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E122">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>127</v>
       </c>
@@ -2899,8 +3268,11 @@
       <c r="D123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E123">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>131</v>
       </c>
@@ -2913,8 +3285,11 @@
       <c r="D124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E124">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>132</v>
       </c>
@@ -2927,8 +3302,11 @@
       <c r="D125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E125">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>145</v>
       </c>
@@ -2941,8 +3319,11 @@
       <c r="D126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E126">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>141</v>
       </c>
@@ -2955,8 +3336,11 @@
       <c r="D127">
         <v>17</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E127">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>139</v>
       </c>
@@ -2969,8 +3353,11 @@
       <c r="D128">
         <v>88</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E128">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>153</v>
       </c>
@@ -2983,8 +3370,11 @@
       <c r="D129">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E129">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>155</v>
       </c>
@@ -2997,8 +3387,11 @@
       <c r="D130">
         <v>58</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E130">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>152</v>
       </c>
@@ -3011,8 +3404,11 @@
       <c r="D131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E131">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>142</v>
       </c>
@@ -3025,8 +3421,11 @@
       <c r="D132">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E132">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>150</v>
       </c>
@@ -3039,8 +3438,11 @@
       <c r="D133">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E133">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>140</v>
       </c>
@@ -3053,8 +3455,11 @@
       <c r="D134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E134">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>147</v>
       </c>
@@ -3067,8 +3472,11 @@
       <c r="D135">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E135">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -3081,8 +3489,11 @@
       <c r="D136">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E136">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>151</v>
       </c>
@@ -3095,8 +3506,11 @@
       <c r="D137">
         <v>16</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E137">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>239</v>
       </c>
@@ -3109,8 +3523,11 @@
       <c r="D138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E138">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>154</v>
       </c>
@@ -3123,8 +3540,11 @@
       <c r="D139">
         <v>192</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E139">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>71</v>
       </c>
@@ -3137,8 +3557,11 @@
       <c r="D140">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E140">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>137</v>
       </c>
@@ -3151,8 +3574,11 @@
       <c r="D141">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E141">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>136</v>
       </c>
@@ -3165,8 +3591,11 @@
       <c r="D142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E142">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>144</v>
       </c>
@@ -3179,8 +3608,11 @@
       <c r="D143">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E143">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>138</v>
       </c>
@@ -3193,8 +3625,11 @@
       <c r="D144">
         <v>13</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E144">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>149</v>
       </c>
@@ -3207,8 +3642,11 @@
       <c r="D145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E145">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>135</v>
       </c>
@@ -3221,8 +3659,11 @@
       <c r="D146">
         <v>27</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E146">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>156</v>
       </c>
@@ -3235,8 +3676,11 @@
       <c r="D147">
         <v>11</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E147">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>143</v>
       </c>
@@ -3249,8 +3693,11 @@
       <c r="D148">
         <v>23</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E148">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>157</v>
       </c>
@@ -3263,8 +3710,11 @@
       <c r="D149">
         <v>10</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E149">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>166</v>
       </c>
@@ -3277,8 +3727,11 @@
       <c r="D150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E150">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>165</v>
       </c>
@@ -3291,8 +3744,11 @@
       <c r="D151">
         <v>13</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E151">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>163</v>
       </c>
@@ -3305,8 +3761,11 @@
       <c r="D152">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E152">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>158</v>
       </c>
@@ -3319,8 +3778,11 @@
       <c r="D153">
         <v>36</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E153">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>168</v>
       </c>
@@ -3333,8 +3795,11 @@
       <c r="D154">
         <v>28</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E154">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>162</v>
       </c>
@@ -3347,8 +3812,11 @@
       <c r="D155">
         <v>9</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E155">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>159</v>
       </c>
@@ -3361,8 +3829,11 @@
       <c r="D156">
         <v>7</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E156">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>161</v>
       </c>
@@ -3375,8 +3846,11 @@
       <c r="D157">
         <v>18</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E157">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>167</v>
       </c>
@@ -3389,8 +3863,11 @@
       <c r="D158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E158">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>160</v>
       </c>
@@ -3403,8 +3880,11 @@
       <c r="D159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E159">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>119</v>
       </c>
@@ -3417,8 +3897,11 @@
       <c r="D160">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E160">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>146</v>
       </c>
@@ -3431,8 +3914,11 @@
       <c r="D161">
         <v>7</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E161">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>164</v>
       </c>
@@ -3445,8 +3931,11 @@
       <c r="D162">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E162">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>169</v>
       </c>
@@ -3459,8 +3948,11 @@
       <c r="D163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E163">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>175</v>
       </c>
@@ -3473,8 +3965,11 @@
       <c r="D164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E164">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>182</v>
       </c>
@@ -3487,8 +3982,11 @@
       <c r="D165">
         <v>27</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E165">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>180</v>
       </c>
@@ -3501,8 +3999,11 @@
       <c r="D166">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E166">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>170</v>
       </c>
@@ -3515,8 +4016,11 @@
       <c r="D167">
         <v>32</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E167">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>173</v>
       </c>
@@ -3529,8 +4033,11 @@
       <c r="D168">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E168">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>183</v>
       </c>
@@ -3543,8 +4050,11 @@
       <c r="D169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E169">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>171</v>
       </c>
@@ -3557,8 +4067,11 @@
       <c r="D170">
         <v>52</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E170">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>174</v>
       </c>
@@ -3571,8 +4084,11 @@
       <c r="D171">
         <v>47</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E171">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>178</v>
       </c>
@@ -3585,8 +4101,11 @@
       <c r="D172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E172">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>176</v>
       </c>
@@ -3599,8 +4118,11 @@
       <c r="D173">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E173">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>181</v>
       </c>
@@ -3613,8 +4135,11 @@
       <c r="D174">
         <v>35</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E174">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>179</v>
       </c>
@@ -3627,8 +4152,11 @@
       <c r="D175">
         <v>15</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E175">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>184</v>
       </c>
@@ -3641,8 +4169,11 @@
       <c r="D176">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E176">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>185</v>
       </c>
@@ -3655,8 +4186,11 @@
       <c r="D177">
         <v>6</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E177">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>186</v>
       </c>
@@ -3669,8 +4203,11 @@
       <c r="D178">
         <v>12</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E178">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>188</v>
       </c>
@@ -3683,8 +4220,11 @@
       <c r="D179">
         <v>24</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E179">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>189</v>
       </c>
@@ -3697,8 +4237,11 @@
       <c r="D180">
         <v>11</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E180">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>196</v>
       </c>
@@ -3711,8 +4254,11 @@
       <c r="D181">
         <v>12</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E181">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>118</v>
       </c>
@@ -3725,8 +4271,11 @@
       <c r="D182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E182">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>126</v>
       </c>
@@ -3739,8 +4288,11 @@
       <c r="D183">
         <v>6</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E183">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>177</v>
       </c>
@@ -3753,8 +4305,11 @@
       <c r="D184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E184">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>231</v>
       </c>
@@ -3767,8 +4322,11 @@
       <c r="D185">
         <v>7</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E185">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>237</v>
       </c>
@@ -3781,8 +4339,11 @@
       <c r="D186">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E186">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>201</v>
       </c>
@@ -3795,8 +4356,11 @@
       <c r="D187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E187">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>205</v>
       </c>
@@ -3809,8 +4373,11 @@
       <c r="D188">
         <v>7</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E188">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>190</v>
       </c>
@@ -3823,8 +4390,11 @@
       <c r="D189">
         <v>5</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E189">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>202</v>
       </c>
@@ -3837,8 +4407,11 @@
       <c r="D190">
         <v>13</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E190">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>187</v>
       </c>
@@ -3851,8 +4424,11 @@
       <c r="D191">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E191">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>192</v>
       </c>
@@ -3865,8 +4441,11 @@
       <c r="D192">
         <v>80</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E192">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>200</v>
       </c>
@@ -3879,8 +4458,11 @@
       <c r="D193">
         <v>10</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E193">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>195</v>
       </c>
@@ -3893,8 +4475,11 @@
       <c r="D194">
         <v>11</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E194">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>199</v>
       </c>
@@ -3907,8 +4492,11 @@
       <c r="D195">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E195">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>197</v>
       </c>
@@ -3921,8 +4509,11 @@
       <c r="D196">
         <v>5</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E196">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>191</v>
       </c>
@@ -3935,8 +4526,11 @@
       <c r="D197">
         <v>9</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E197">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>203</v>
       </c>
@@ -3949,8 +4543,11 @@
       <c r="D198">
         <v>9</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E198">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>240</v>
       </c>
@@ -3963,8 +4560,11 @@
       <c r="D199">
         <v>63</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E199">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>88</v>
       </c>
@@ -3977,8 +4577,11 @@
       <c r="D200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E200">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>120</v>
       </c>
@@ -3991,8 +4594,11 @@
       <c r="D201">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E201">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>66</v>
       </c>
@@ -4005,8 +4611,11 @@
       <c r="D202">
         <v>56</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E202">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>128</v>
       </c>
@@ -4019,8 +4628,11 @@
       <c r="D203">
         <v>61</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E203">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>193</v>
       </c>
@@ -4033,8 +4645,11 @@
       <c r="D204">
         <v>11</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E204">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -4047,8 +4662,11 @@
       <c r="D205">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E205">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>198</v>
       </c>
@@ -4061,8 +4679,11 @@
       <c r="D206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E206">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>208</v>
       </c>
@@ -4075,8 +4696,11 @@
       <c r="D207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E207">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>194</v>
       </c>
@@ -4089,8 +4713,11 @@
       <c r="D208">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E208">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>42</v>
       </c>
@@ -4103,8 +4730,11 @@
       <c r="D209">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E209">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>207</v>
       </c>
@@ -4117,8 +4747,11 @@
       <c r="D210">
         <v>15</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E210">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>223</v>
       </c>
@@ -4131,8 +4764,11 @@
       <c r="D211">
         <v>9</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E211">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>214</v>
       </c>
@@ -4145,8 +4781,11 @@
       <c r="D212">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E212">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>224</v>
       </c>
@@ -4159,8 +4798,11 @@
       <c r="D213">
         <v>110</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E213">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -4173,8 +4815,11 @@
       <c r="D214">
         <v>37</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E214">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>216</v>
       </c>
@@ -4187,8 +4832,11 @@
       <c r="D215">
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E215">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>212</v>
       </c>
@@ -4201,8 +4849,11 @@
       <c r="D216">
         <v>10</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E216">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>215</v>
       </c>
@@ -4215,8 +4866,11 @@
       <c r="D217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E217">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>219</v>
       </c>
@@ -4229,8 +4883,11 @@
       <c r="D218">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E218">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>221</v>
       </c>
@@ -4243,8 +4900,11 @@
       <c r="D219">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E219">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>218</v>
       </c>
@@ -4257,8 +4917,11 @@
       <c r="D220">
         <v>11</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E220">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -4271,8 +4934,11 @@
       <c r="D221">
         <v>64</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E221">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>217</v>
       </c>
@@ -4285,8 +4951,11 @@
       <c r="D222">
         <v>10</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E222">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>209</v>
       </c>
@@ -4299,8 +4968,11 @@
       <c r="D223">
         <v>6</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E223">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>222</v>
       </c>
@@ -4313,8 +4985,11 @@
       <c r="D224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E224">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>233</v>
       </c>
@@ -4327,8 +5002,11 @@
       <c r="D225">
         <v>9</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E225">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>226</v>
       </c>
@@ -4341,8 +5019,11 @@
       <c r="D226">
         <v>41</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E226">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>225</v>
       </c>
@@ -4355,8 +5036,11 @@
       <c r="D227">
         <v>10</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E227">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>4</v>
       </c>
@@ -4369,8 +5053,11 @@
       <c r="D228">
         <v>3</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E228">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>75</v>
       </c>
@@ -4383,8 +5070,11 @@
       <c r="D229">
         <v>10</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E229">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>227</v>
       </c>
@@ -4397,8 +5087,11 @@
       <c r="D230">
         <v>211</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E230">
+        <v>6792</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>228</v>
       </c>
@@ -4411,8 +5104,11 @@
       <c r="D231">
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E231">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>229</v>
       </c>
@@ -4425,8 +5121,11 @@
       <c r="D232">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E232">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>235</v>
       </c>
@@ -4439,8 +5138,11 @@
       <c r="D233">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E233">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>230</v>
       </c>
@@ -4453,8 +5155,11 @@
       <c r="D234">
         <v>31</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E234">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>232</v>
       </c>
@@ -4467,8 +5172,11 @@
       <c r="D235">
         <v>55</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E235">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>234</v>
       </c>
@@ -4481,8 +5189,11 @@
       <c r="D236">
         <v>10</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E236">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -4495,8 +5206,11 @@
       <c r="D237">
         <v>3</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E237">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>64</v>
       </c>
@@ -4509,8 +5223,11 @@
       <c r="D238">
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E238">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
@@ -4523,8 +5240,11 @@
       <c r="D239">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E239">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>241</v>
       </c>
@@ -4537,8 +5257,11 @@
       <c r="D240">
         <v>9</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E240">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>242</v>
       </c>
@@ -4550,6 +5273,9 @@
       </c>
       <c r="D241">
         <v>7</v>
+      </c>
+      <c r="E241">
+        <v>1360</v>
       </c>
     </row>
   </sheetData>
